--- a/Files/Madden25/IE/Season8/Player_InjuryChanges.xlsx
+++ b/Files/Madden25/IE/Season8/Player_InjuryChanges.xlsx
@@ -509,13 +509,13 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -575,24 +575,24 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -685,13 +685,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -729,13 +729,13 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -773,13 +773,13 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -828,13 +828,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -905,13 +905,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1268,13 +1268,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1345,13 +1345,13 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1477,13 +1477,13 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1642,13 +1642,13 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1851,35 +1851,35 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1950,24 +1950,24 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2060,13 +2060,13 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2258,13 +2258,13 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2379,13 +2379,13 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2412,13 +2412,13 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="B185">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2445,24 +2445,24 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2511,13 +2511,13 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2566,13 +2566,13 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2599,13 +2599,13 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2621,24 +2621,24 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2709,13 +2709,13 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2753,13 +2753,13 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2786,13 +2786,13 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2874,13 +2874,13 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2973,13 +2973,13 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2995,13 +2995,13 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3160,13 +3160,13 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3281,13 +3281,13 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3306,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3633,35 +3633,35 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
+        <v>-1</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
         <v>2</v>
-      </c>
-      <c r="B297">
-        <v>4</v>
-      </c>
-      <c r="C297">
-        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3677,13 +3677,13 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B300">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C300">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3710,13 +3710,13 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3853,13 +3853,13 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B316">
         <v>0</v>
       </c>
       <c r="C316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3908,13 +3908,13 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B321">
         <v>0</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4007,13 +4007,13 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4117,13 +4117,13 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4172,13 +4172,13 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B345">
         <v>0</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4194,24 +4194,24 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B347">
         <v>0</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
       <c r="C348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4282,13 +4282,13 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4315,24 +4315,24 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B358">
         <v>0</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4590,24 +4590,24 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B383">
         <v>0</v>
       </c>
       <c r="C383">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B384">
         <v>0</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4645,13 +4645,13 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B388">
         <v>0</v>
       </c>
       <c r="C388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4755,24 +4755,24 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B398">
         <v>0</v>
       </c>
       <c r="C398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B399">
         <v>0</v>
       </c>
       <c r="C399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4876,13 +4876,13 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B409">
         <v>0</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4953,13 +4953,13 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B416">
         <v>0</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4975,13 +4975,13 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B418">
         <v>0</v>
       </c>
       <c r="C418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5052,13 +5052,13 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B425">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C425">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5162,13 +5162,13 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B435">
         <v>0</v>
       </c>
       <c r="C435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5206,24 +5206,24 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B439">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C439">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B440">
         <v>0</v>
       </c>
       <c r="C440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="C443">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5283,13 +5283,13 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B446">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C446">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5316,13 +5316,13 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5525,13 +5525,13 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B468">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C468">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5569,13 +5569,13 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B472">
         <v>0</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5602,13 +5602,13 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B475">
         <v>0</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5646,13 +5646,13 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B479">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C479">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5701,13 +5701,13 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B484">
         <v>0</v>
       </c>
       <c r="C484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5899,13 +5899,13 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B502">
         <v>0</v>
       </c>
       <c r="C502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5954,13 +5954,13 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B507">
         <v>0</v>
       </c>
       <c r="C507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5976,13 +5976,13 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B509">
         <v>0</v>
       </c>
       <c r="C509">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6130,10 +6130,10 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523">
         <v>2</v>
@@ -6152,13 +6152,13 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B525">
         <v>0</v>
       </c>
       <c r="C525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6185,13 +6185,13 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B528">
         <v>0</v>
       </c>
       <c r="C528">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6262,13 +6262,13 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B535">
         <v>0</v>
       </c>
       <c r="C535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6306,13 +6306,13 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B539">
         <v>0</v>
       </c>
       <c r="C539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6328,13 +6328,13 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B541">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6460,24 +6460,24 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B553">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C553">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B554">
         <v>0</v>
       </c>
       <c r="C554">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6515,13 +6515,13 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B558">
         <v>0</v>
       </c>
       <c r="C558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6537,13 +6537,13 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B560">
         <v>0</v>
       </c>
       <c r="C560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6691,13 +6691,13 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="B574">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C574">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6878,13 +6878,13 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C591">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="C592">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6933,13 +6933,13 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B596">
         <v>0</v>
       </c>
       <c r="C596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7032,24 +7032,24 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B605">
         <v>0</v>
       </c>
       <c r="C605">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B606">
         <v>0</v>
       </c>
       <c r="C606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7065,13 +7065,13 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B608">
         <v>0</v>
       </c>
       <c r="C608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7134,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="B614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7197,13 +7197,13 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B620">
         <v>0</v>
       </c>
       <c r="C620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7225,18 +7225,18 @@
         <v>0</v>
       </c>
       <c r="C622">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B623">
         <v>0</v>
       </c>
       <c r="C623">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7318,13 +7318,13 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B631">
         <v>0</v>
       </c>
       <c r="C631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7373,18 +7373,18 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B636">
         <v>0</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -7406,13 +7406,13 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B639">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C639">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7439,13 +7439,13 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B642">
         <v>0</v>
       </c>
       <c r="C642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7483,7 +7483,7 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B646">
         <v>0</v>
@@ -7505,13 +7505,13 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B648">
         <v>0</v>
       </c>
       <c r="C648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7549,7 +7549,7 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -7582,13 +7582,13 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B655">
         <v>0</v>
       </c>
       <c r="C655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7626,7 +7626,7 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B659">
         <v>0</v>
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="B660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7692,7 +7692,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B665">
         <v>0</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="668" spans="1:3">
       <c r="A668">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B668">
         <v>0</v>
@@ -7747,13 +7747,13 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B670">
         <v>0</v>
       </c>
       <c r="C670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B672">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="B686">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7956,13 +7956,13 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B689">
         <v>0</v>
       </c>
       <c r="C689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8000,7 +8000,7 @@
     </row>
     <row r="693" spans="1:3">
       <c r="A693">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B693">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C695">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8176,7 +8176,7 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B709">
         <v>0</v>
@@ -8190,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="B710">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C710">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="C712">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8231,7 +8231,7 @@
     </row>
     <row r="714" spans="1:3">
       <c r="A714">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B714">
         <v>0</v>
@@ -8242,18 +8242,18 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B715">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C715">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B716">
         <v>0</v>
@@ -8264,18 +8264,18 @@
     </row>
     <row r="717" spans="1:3">
       <c r="A717">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B717">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C717">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B718">
         <v>0</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="719" spans="1:3">
       <c r="A719">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B719">
         <v>0</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B723">
         <v>0</v>
       </c>
       <c r="C723">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8385,7 +8385,7 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B728">
         <v>0</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B730">
         <v>0</v>
@@ -8462,13 +8462,13 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B735">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C735">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8484,7 +8484,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B737">
         <v>0</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B744">
         <v>0</v>
@@ -8594,13 +8594,13 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B747">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C747">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8660,13 +8660,13 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B753">
         <v>0</v>
       </c>
       <c r="C753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8682,7 +8682,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B755">
         <v>0</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B757">
         <v>0</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C761">
         <v>0</v>
@@ -8781,13 +8781,13 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B764">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C764">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8858,7 +8858,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B771">
         <v>0</v>
@@ -8869,40 +8869,40 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B772">
         <v>0</v>
       </c>
       <c r="C772">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B773">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C773">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="A774">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B774">
         <v>0</v>
       </c>
       <c r="C774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B775">
         <v>0</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="776" spans="1:3">
       <c r="A776">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B776">
         <v>0</v>
@@ -8924,13 +8924,13 @@
     </row>
     <row r="777" spans="1:3">
       <c r="A777">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B777">
         <v>0</v>
       </c>
       <c r="C777">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8968,7 +8968,7 @@
     </row>
     <row r="781" spans="1:3">
       <c r="A781">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="B781">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="C782">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9034,13 +9034,13 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B787">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C787">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9166,13 +9166,13 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B799">
         <v>0</v>
       </c>
       <c r="C799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9345,10 +9345,10 @@
         <v>0</v>
       </c>
       <c r="B815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9419,13 +9419,13 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B822">
         <v>0</v>
       </c>
       <c r="C822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9551,13 +9551,13 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B834">
         <v>0</v>
       </c>
       <c r="C834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9642,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="B842">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9697,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="B847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="B849">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C849">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9815,13 +9815,13 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B858">
         <v>0</v>
       </c>
       <c r="C858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9859,13 +9859,13 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B862">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C862">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9980,13 +9980,13 @@
     </row>
     <row r="873" spans="1:3">
       <c r="A873">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B873">
         <v>0</v>
       </c>
       <c r="C873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="C875">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10057,13 +10057,13 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B880">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C880">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10093,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="B883">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10178,13 +10178,13 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B891">
         <v>0</v>
       </c>
       <c r="C891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10255,7 +10255,7 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B898">
         <v>3</v>
@@ -10310,13 +10310,13 @@
     </row>
     <row r="903" spans="1:3">
       <c r="A903">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="B903">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C903">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10332,13 +10332,13 @@
     </row>
     <row r="905" spans="1:3">
       <c r="A905">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B905">
         <v>0</v>
       </c>
       <c r="C905">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10354,13 +10354,13 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B907">
         <v>0</v>
       </c>
       <c r="C907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10409,13 +10409,13 @@
     </row>
     <row r="912" spans="1:3">
       <c r="A912">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B912">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C912">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10431,13 +10431,13 @@
     </row>
     <row r="914" spans="1:3">
       <c r="A914">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B914">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C914">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10541,13 +10541,13 @@
     </row>
     <row r="924" spans="1:3">
       <c r="A924">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B924">
         <v>0</v>
       </c>
       <c r="C924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10629,24 +10629,24 @@
     </row>
     <row r="932" spans="1:3">
       <c r="A932">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B932">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C932">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="933" spans="1:3">
       <c r="A933">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B933">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C933">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="B937">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C937">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10717,13 +10717,13 @@
     </row>
     <row r="940" spans="1:3">
       <c r="A940">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B940">
         <v>0</v>
       </c>
       <c r="C940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10805,24 +10805,24 @@
     </row>
     <row r="948" spans="1:3">
       <c r="A948">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B948">
         <v>0</v>
       </c>
       <c r="C948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:3">
       <c r="A949">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B949">
         <v>0</v>
       </c>
       <c r="C949">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -11069,13 +11069,13 @@
     </row>
     <row r="972" spans="1:3">
       <c r="A972">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B972">
         <v>0</v>
       </c>
       <c r="C972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11116,10 +11116,10 @@
         <v>0</v>
       </c>
       <c r="B976">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11245,13 +11245,13 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B988">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C988">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="C991">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11333,35 +11333,35 @@
     </row>
     <row r="996" spans="1:3">
       <c r="A996">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B996">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C996">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" spans="1:3">
       <c r="A997">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B997">
         <v>0</v>
       </c>
       <c r="C997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:3">
       <c r="A998">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="B998">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C998">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11377,13 +11377,13 @@
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="B1000">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1000">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11410,24 +11410,24 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1003">
         <v>0</v>
       </c>
       <c r="C1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1004">
         <v>0</v>
       </c>
       <c r="C1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11575,13 +11575,13 @@
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1018">
         <v>0</v>
       </c>
       <c r="C1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11597,13 +11597,13 @@
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1020">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1020">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11652,13 +11652,13 @@
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1025">
         <v>0</v>
       </c>
       <c r="C1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11696,13 +11696,13 @@
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1029">
         <v>0</v>
       </c>
       <c r="C1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11773,13 +11773,13 @@
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1036">
         <v>0</v>
       </c>
       <c r="C1036">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11916,13 +11916,13 @@
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1049">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1049">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -12004,13 +12004,13 @@
     </row>
     <row r="1057" spans="1:3">
       <c r="A1057">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1057">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C1057">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12070,13 +12070,13 @@
     </row>
     <row r="1063" spans="1:3">
       <c r="A1063">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1063">
         <v>0</v>
       </c>
       <c r="C1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12114,13 +12114,13 @@
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1067">
         <v>0</v>
       </c>
       <c r="C1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12147,24 +12147,24 @@
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1070">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1070">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1071">
         <v>0</v>
       </c>
       <c r="C1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12191,13 +12191,13 @@
     </row>
     <row r="1074" spans="1:3">
       <c r="A1074">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1074">
         <v>0</v>
       </c>
       <c r="C1074">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12260,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="B1080">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1080">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12334,13 +12334,13 @@
     </row>
     <row r="1087" spans="1:3">
       <c r="A1087">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1087">
         <v>0</v>
       </c>
       <c r="C1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -12411,13 +12411,13 @@
     </row>
     <row r="1094" spans="1:3">
       <c r="A1094">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B1094">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1094">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
@@ -12444,13 +12444,13 @@
     </row>
     <row r="1097" spans="1:3">
       <c r="A1097">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B1097">
         <v>0</v>
       </c>
       <c r="C1097">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C1101">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12510,13 +12510,13 @@
     </row>
     <row r="1103" spans="1:3">
       <c r="A1103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1103">
         <v>0</v>
       </c>
       <c r="C1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12532,13 +12532,13 @@
     </row>
     <row r="1105" spans="1:3">
       <c r="A1105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1105">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1105">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12587,13 +12587,13 @@
     </row>
     <row r="1110" spans="1:3">
       <c r="A1110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1110">
         <v>0</v>
       </c>
       <c r="C1110">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12601,10 +12601,10 @@
         <v>0</v>
       </c>
       <c r="B1111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12678,10 +12678,10 @@
         <v>0</v>
       </c>
       <c r="B1118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1118">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12730,13 +12730,13 @@
     </row>
     <row r="1123" spans="1:3">
       <c r="A1123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1123">
         <v>4</v>
       </c>
       <c r="C1123">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12774,13 +12774,13 @@
     </row>
     <row r="1127" spans="1:3">
       <c r="A1127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1127">
         <v>0</v>
       </c>
       <c r="C1127">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12939,13 +12939,13 @@
     </row>
     <row r="1142" spans="1:3">
       <c r="A1142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1142">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1142">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -13071,13 +13071,13 @@
     </row>
     <row r="1154" spans="1:3">
       <c r="A1154">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B1154">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C1154">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
@@ -13093,13 +13093,13 @@
     </row>
     <row r="1156" spans="1:3">
       <c r="A1156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1156">
         <v>0</v>
       </c>
       <c r="C1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13173,10 +13173,10 @@
         <v>0</v>
       </c>
       <c r="B1163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -13203,13 +13203,13 @@
     </row>
     <row r="1166" spans="1:3">
       <c r="A1166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1166">
         <v>0</v>
       </c>
       <c r="C1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
@@ -13280,13 +13280,13 @@
     </row>
     <row r="1173" spans="1:3">
       <c r="A1173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1173">
         <v>0</v>
       </c>
       <c r="C1173">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13302,13 +13302,13 @@
     </row>
     <row r="1175" spans="1:3">
       <c r="A1175">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B1175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1175">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13335,10 +13335,10 @@
     </row>
     <row r="1178" spans="1:3">
       <c r="A1178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1178">
         <v>0</v>
@@ -13357,13 +13357,13 @@
     </row>
     <row r="1180" spans="1:3">
       <c r="A1180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1180">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13412,13 +13412,13 @@
     </row>
     <row r="1185" spans="1:3">
       <c r="A1185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1185">
         <v>0</v>
       </c>
       <c r="C1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13456,13 +13456,13 @@
     </row>
     <row r="1189" spans="1:3">
       <c r="A1189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1189">
         <v>0</v>
       </c>
       <c r="C1189">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13478,13 +13478,13 @@
     </row>
     <row r="1191" spans="1:3">
       <c r="A1191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1191">
         <v>0</v>
       </c>
       <c r="C1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13514,10 +13514,10 @@
         <v>0</v>
       </c>
       <c r="B1194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13709,13 +13709,13 @@
     </row>
     <row r="1212" spans="1:3">
       <c r="A1212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1212">
         <v>0</v>
       </c>
       <c r="C1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13965,10 +13965,10 @@
         <v>0</v>
       </c>
       <c r="B1235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -14009,10 +14009,10 @@
         <v>0</v>
       </c>
       <c r="B1239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -14028,13 +14028,13 @@
     </row>
     <row r="1241" spans="1:3">
       <c r="A1241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1241">
         <v>0</v>
       </c>
       <c r="C1241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14116,13 +14116,13 @@
     </row>
     <row r="1249" spans="1:3">
       <c r="A1249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1249">
         <v>0</v>
       </c>
       <c r="C1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14182,13 +14182,13 @@
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1255">
         <v>0</v>
       </c>
       <c r="C1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14259,35 +14259,35 @@
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1262">
         <v>0</v>
       </c>
       <c r="C1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
       <c r="A1263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1263">
         <v>0</v>
       </c>
       <c r="C1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
       <c r="A1264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1264">
         <v>0</v>
       </c>
       <c r="C1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -14402,13 +14402,13 @@
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1275">
         <v>0</v>
       </c>
       <c r="C1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14424,13 +14424,13 @@
     </row>
     <row r="1277" spans="1:3">
       <c r="A1277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1277">
         <v>0</v>
       </c>
       <c r="C1277">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="C1278">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14468,13 +14468,13 @@
     </row>
     <row r="1281" spans="1:3">
       <c r="A1281">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1281">
         <v>0</v>
       </c>
       <c r="C1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="C1287">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14581,10 +14581,10 @@
         <v>0</v>
       </c>
       <c r="B1291">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1291">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14595,18 +14595,18 @@
         <v>0</v>
       </c>
       <c r="C1292">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1293">
         <v>0</v>
       </c>
       <c r="C1293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14647,10 +14647,10 @@
         <v>0</v>
       </c>
       <c r="B1297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1297">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14702,10 +14702,10 @@
         <v>0</v>
       </c>
       <c r="B1302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14732,13 +14732,13 @@
     </row>
     <row r="1305" spans="1:3">
       <c r="A1305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1305">
         <v>0</v>
       </c>
       <c r="C1305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14754,13 +14754,13 @@
     </row>
     <row r="1307" spans="1:3">
       <c r="A1307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1307">
         <v>0</v>
       </c>
       <c r="C1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14809,13 +14809,13 @@
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1312">
         <v>0</v>
       </c>
       <c r="C1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14864,13 +14864,13 @@
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1317">
         <v>0</v>
       </c>
       <c r="C1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14925,18 +14925,18 @@
         <v>0</v>
       </c>
       <c r="C1322">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
       <c r="A1323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1323">
         <v>0</v>
       </c>
       <c r="C1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -15117,13 +15117,13 @@
     </row>
     <row r="1340" spans="1:3">
       <c r="A1340">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1340">
         <v>0</v>
       </c>
       <c r="C1340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15186,10 +15186,10 @@
         <v>0</v>
       </c>
       <c r="B1346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15326,13 +15326,13 @@
     </row>
     <row r="1359" spans="1:3">
       <c r="A1359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1359">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1359">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15370,13 +15370,13 @@
     </row>
     <row r="1363" spans="1:3">
       <c r="A1363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1363">
         <v>0</v>
       </c>
       <c r="C1363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15425,13 +15425,13 @@
     </row>
     <row r="1368" spans="1:3">
       <c r="A1368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1368">
         <v>0</v>
       </c>
       <c r="C1368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15524,24 +15524,24 @@
     </row>
     <row r="1377" spans="1:3">
       <c r="A1377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1377">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="A1378">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1378">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C1378">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15634,13 +15634,13 @@
     </row>
     <row r="1387" spans="1:3">
       <c r="A1387">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1387">
         <v>0</v>
       </c>
       <c r="C1387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15791,10 +15791,10 @@
         <v>0</v>
       </c>
       <c r="B1401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1401">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15813,10 +15813,10 @@
         <v>0</v>
       </c>
       <c r="B1403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15843,13 +15843,13 @@
     </row>
     <row r="1406" spans="1:3">
       <c r="A1406">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1406">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1406">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15887,13 +15887,13 @@
     </row>
     <row r="1410" spans="1:3">
       <c r="A1410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1410">
         <v>0</v>
       </c>
       <c r="C1410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="C1419">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16052,13 +16052,13 @@
     </row>
     <row r="1425" spans="1:3">
       <c r="A1425">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1425">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1425">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16140,13 +16140,13 @@
     </row>
     <row r="1433" spans="1:3">
       <c r="A1433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1433">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16283,13 +16283,13 @@
     </row>
     <row r="1446" spans="1:3">
       <c r="A1446">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1446">
         <v>0</v>
       </c>
       <c r="C1446">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16305,13 +16305,13 @@
     </row>
     <row r="1448" spans="1:3">
       <c r="A1448">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1448">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1448">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16415,24 +16415,24 @@
     </row>
     <row r="1458" spans="1:3">
       <c r="A1458">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B1458">
         <v>0</v>
       </c>
       <c r="C1458">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
       <c r="A1459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1459">
         <v>0</v>
       </c>
       <c r="C1459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16679,13 +16679,13 @@
     </row>
     <row r="1482" spans="1:3">
       <c r="A1482">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1482">
         <v>0</v>
       </c>
       <c r="C1482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16745,13 +16745,13 @@
     </row>
     <row r="1488" spans="1:3">
       <c r="A1488">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1488">
         <v>0</v>
       </c>
       <c r="C1488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16921,13 +16921,13 @@
     </row>
     <row r="1504" spans="1:3">
       <c r="A1504">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1504">
         <v>0</v>
       </c>
       <c r="C1504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -17185,13 +17185,13 @@
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1528">
         <v>0</v>
       </c>
       <c r="C1528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17229,13 +17229,13 @@
     </row>
     <row r="1532" spans="1:3">
       <c r="A1532">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1532">
         <v>0</v>
       </c>
       <c r="C1532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17372,13 +17372,13 @@
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1545">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C1545">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
@@ -17460,13 +17460,13 @@
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1553">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1553">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
@@ -17581,13 +17581,13 @@
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1564">
         <v>0</v>
       </c>
       <c r="C1564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
@@ -17636,13 +17636,13 @@
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1569">
         <v>0</v>
       </c>
       <c r="C1569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
@@ -17661,10 +17661,10 @@
         <v>0</v>
       </c>
       <c r="B1571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1571">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
@@ -17724,13 +17724,13 @@
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1577">
         <v>0</v>
       </c>
       <c r="C1577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
@@ -17812,13 +17812,13 @@
     </row>
     <row r="1585" spans="1:3">
       <c r="A1585">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1585">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1585">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
@@ -17856,13 +17856,13 @@
     </row>
     <row r="1589" spans="1:3">
       <c r="A1589">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1589">
         <v>0</v>
       </c>
       <c r="C1589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
@@ -18021,13 +18021,13 @@
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1604">
         <v>0</v>
       </c>
       <c r="C1604">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
@@ -18142,13 +18142,13 @@
     </row>
     <row r="1615" spans="1:3">
       <c r="A1615">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1615">
         <v>0</v>
       </c>
       <c r="C1615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
@@ -18164,13 +18164,13 @@
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1617">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C1617">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
@@ -18208,13 +18208,13 @@
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1621">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1621">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
@@ -18428,13 +18428,13 @@
     </row>
     <row r="1641" spans="1:3">
       <c r="A1641">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1641">
         <v>0</v>
       </c>
       <c r="C1641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
@@ -18486,10 +18486,10 @@
         <v>0</v>
       </c>
       <c r="B1646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
@@ -18560,13 +18560,13 @@
     </row>
     <row r="1653" spans="1:3">
       <c r="A1653">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1653">
         <v>0</v>
       </c>
       <c r="C1653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
@@ -18588,18 +18588,18 @@
         <v>0</v>
       </c>
       <c r="C1655">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
       <c r="A1656">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B1656">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1656">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
@@ -18780,13 +18780,13 @@
     </row>
     <row r="1673" spans="1:3">
       <c r="A1673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1673">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1674" spans="1:3">
@@ -18879,13 +18879,13 @@
     </row>
     <row r="1682" spans="1:3">
       <c r="A1682">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1682">
         <v>0</v>
       </c>
       <c r="C1682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1683" spans="1:3">
@@ -18956,13 +18956,13 @@
     </row>
     <row r="1689" spans="1:3">
       <c r="A1689">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1689">
         <v>0</v>
       </c>
       <c r="C1689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1690" spans="1:3">
@@ -19066,13 +19066,13 @@
     </row>
     <row r="1699" spans="1:3">
       <c r="A1699">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1699">
         <v>0</v>
       </c>
       <c r="C1699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
@@ -19135,10 +19135,10 @@
         <v>0</v>
       </c>
       <c r="B1705">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1705">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
@@ -19209,13 +19209,13 @@
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1712">
         <v>0</v>
       </c>
       <c r="C1712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
@@ -19253,13 +19253,13 @@
     </row>
     <row r="1716" spans="1:3">
       <c r="A1716">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B1716">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1716">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
@@ -19275,13 +19275,13 @@
     </row>
     <row r="1718" spans="1:3">
       <c r="A1718">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1718">
         <v>0</v>
       </c>
       <c r="C1718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
@@ -19385,13 +19385,13 @@
     </row>
     <row r="1728" spans="1:3">
       <c r="A1728">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1728">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1728">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
@@ -19495,13 +19495,13 @@
     </row>
     <row r="1738" spans="1:3">
       <c r="A1738">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1738">
         <v>0</v>
       </c>
       <c r="C1738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
@@ -19517,13 +19517,13 @@
     </row>
     <row r="1740" spans="1:3">
       <c r="A1740">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1740">
         <v>0</v>
       </c>
       <c r="C1740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
@@ -19550,13 +19550,13 @@
     </row>
     <row r="1743" spans="1:3">
       <c r="A1743">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1743">
         <v>0</v>
       </c>
       <c r="C1743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
@@ -19682,10 +19682,10 @@
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1755">
         <v>2</v>
@@ -19803,13 +19803,13 @@
     </row>
     <row r="1766" spans="1:3">
       <c r="A1766">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1766">
         <v>0</v>
       </c>
       <c r="C1766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
@@ -19913,13 +19913,13 @@
     </row>
     <row r="1776" spans="1:3">
       <c r="A1776">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1776">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1776">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
@@ -20001,13 +20001,13 @@
     </row>
     <row r="1784" spans="1:3">
       <c r="A1784">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1784">
         <v>0</v>
       </c>
       <c r="C1784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
@@ -20023,13 +20023,13 @@
     </row>
     <row r="1786" spans="1:3">
       <c r="A1786">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1786">
         <v>0</v>
       </c>
       <c r="C1786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
@@ -20078,10 +20078,10 @@
     </row>
     <row r="1791" spans="1:3">
       <c r="A1791">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1791">
         <v>2</v>
@@ -20089,13 +20089,13 @@
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1792">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1792">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
@@ -20133,13 +20133,13 @@
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1796">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1796">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
@@ -20298,13 +20298,13 @@
     </row>
     <row r="1811" spans="1:3">
       <c r="A1811">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1811">
         <v>0</v>
       </c>
       <c r="C1811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
@@ -20331,13 +20331,13 @@
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="B1814">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1814">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
@@ -20397,13 +20397,13 @@
     </row>
     <row r="1820" spans="1:3">
       <c r="A1820">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1820">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C1820">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
@@ -20419,13 +20419,13 @@
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1822">
         <v>0</v>
       </c>
       <c r="C1822">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
@@ -20485,13 +20485,13 @@
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1828">
         <v>0</v>
       </c>
       <c r="C1828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
@@ -20518,13 +20518,13 @@
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1831">
         <v>0</v>
       </c>
       <c r="C1831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
@@ -20606,13 +20606,13 @@
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1839">
         <v>0</v>
       </c>
       <c r="C1839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
@@ -20683,10 +20683,10 @@
     </row>
     <row r="1846" spans="1:3">
       <c r="A1846">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1846">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1846">
         <v>2</v>
@@ -20716,13 +20716,13 @@
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1849">
         <v>0</v>
       </c>
       <c r="C1849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
@@ -20738,13 +20738,13 @@
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1851">
         <v>0</v>
       </c>
       <c r="C1851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
@@ -20782,13 +20782,13 @@
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="B1855">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1855">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
@@ -20804,13 +20804,13 @@
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1857">
         <v>0</v>
       </c>
       <c r="C1857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
@@ -20892,13 +20892,13 @@
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1865">
         <v>0</v>
       </c>
       <c r="C1865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
@@ -20980,13 +20980,13 @@
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1873">
         <v>0</v>
       </c>
       <c r="C1873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
@@ -21002,13 +21002,13 @@
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1875">
         <v>0</v>
       </c>
       <c r="C1875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
@@ -21123,13 +21123,13 @@
     </row>
     <row r="1886" spans="1:3">
       <c r="A1886">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1886">
         <v>0</v>
       </c>
       <c r="C1886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
@@ -21178,13 +21178,13 @@
     </row>
     <row r="1891" spans="1:3">
       <c r="A1891">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1891">
         <v>0</v>
       </c>
       <c r="C1891">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
@@ -21222,13 +21222,13 @@
     </row>
     <row r="1895" spans="1:3">
       <c r="A1895">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1895">
         <v>0</v>
       </c>
       <c r="C1895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
@@ -21291,10 +21291,10 @@
         <v>0</v>
       </c>
       <c r="B1901">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="C1903">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
@@ -21409,13 +21409,13 @@
     </row>
     <row r="1912" spans="1:3">
       <c r="A1912">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1912">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1912">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
@@ -21431,13 +21431,13 @@
     </row>
     <row r="1914" spans="1:3">
       <c r="A1914">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1914">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C1914">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
@@ -21684,13 +21684,13 @@
     </row>
     <row r="1937" spans="1:3">
       <c r="A1937">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1937">
         <v>0</v>
       </c>
       <c r="C1937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
@@ -21750,24 +21750,24 @@
     </row>
     <row r="1943" spans="1:3">
       <c r="A1943">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1943">
         <v>0</v>
       </c>
       <c r="C1943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
       <c r="A1944">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1944">
         <v>0</v>
       </c>
       <c r="C1944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
@@ -21849,13 +21849,13 @@
     </row>
     <row r="1952" spans="1:3">
       <c r="A1952">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1952">
         <v>0</v>
       </c>
       <c r="C1952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
@@ -21871,10 +21871,10 @@
     </row>
     <row r="1954" spans="1:3">
       <c r="A1954">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B1954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1954">
         <v>2</v>
@@ -21959,24 +21959,24 @@
     </row>
     <row r="1962" spans="1:3">
       <c r="A1962">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1962">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1962">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
       <c r="A1963">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1963">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1963">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
@@ -22014,13 +22014,13 @@
     </row>
     <row r="1967" spans="1:3">
       <c r="A1967">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1967">
         <v>0</v>
       </c>
       <c r="C1967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
@@ -22058,13 +22058,13 @@
     </row>
     <row r="1971" spans="1:3">
       <c r="A1971">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B1971">
         <v>0</v>
       </c>
       <c r="C1971">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
@@ -22091,13 +22091,13 @@
     </row>
     <row r="1974" spans="1:3">
       <c r="A1974">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1974">
         <v>0</v>
       </c>
       <c r="C1974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
@@ -22113,24 +22113,24 @@
     </row>
     <row r="1976" spans="1:3">
       <c r="A1976">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1976">
         <v>0</v>
       </c>
       <c r="C1976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
       <c r="A1977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1977">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
@@ -22179,13 +22179,13 @@
     </row>
     <row r="1982" spans="1:3">
       <c r="A1982">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B1982">
         <v>0</v>
       </c>
       <c r="C1982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
@@ -22432,24 +22432,24 @@
     </row>
     <row r="2005" spans="1:3">
       <c r="A2005">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2005">
         <v>0</v>
       </c>
       <c r="C2005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006" spans="1:3">
       <c r="A2006">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2006">
         <v>0</v>
       </c>
       <c r="C2006">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2007" spans="1:3">
@@ -22729,13 +22729,13 @@
     </row>
     <row r="2032" spans="1:3">
       <c r="A2032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2032">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2032">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
@@ -22795,13 +22795,13 @@
     </row>
     <row r="2038" spans="1:3">
       <c r="A2038">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B2038">
         <v>0</v>
       </c>
       <c r="C2038">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
@@ -22817,13 +22817,13 @@
     </row>
     <row r="2040" spans="1:3">
       <c r="A2040">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2040">
         <v>0</v>
       </c>
       <c r="C2040">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
@@ -22861,13 +22861,13 @@
     </row>
     <row r="2044" spans="1:3">
       <c r="A2044">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2044">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2044">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
@@ -23029,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="B2059">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23202,13 +23202,13 @@
     </row>
     <row r="2075" spans="1:3">
       <c r="A2075">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2075">
         <v>0</v>
       </c>
       <c r="C2075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
@@ -23246,13 +23246,13 @@
     </row>
     <row r="2079" spans="1:3">
       <c r="A2079">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2079">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2079">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
@@ -23271,10 +23271,10 @@
         <v>0</v>
       </c>
       <c r="B2081">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
@@ -23345,13 +23345,13 @@
     </row>
     <row r="2088" spans="1:3">
       <c r="A2088">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2088">
         <v>0</v>
       </c>
       <c r="C2088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -23620,13 +23620,13 @@
     </row>
     <row r="2113" spans="1:3">
       <c r="A2113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2113">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23730,13 +23730,13 @@
     </row>
     <row r="2123" spans="1:3">
       <c r="A2123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2123">
         <v>0</v>
       </c>
       <c r="C2123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
@@ -23807,13 +23807,13 @@
     </row>
     <row r="2130" spans="1:3">
       <c r="A2130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2130">
         <v>0</v>
       </c>
       <c r="C2130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
@@ -23862,13 +23862,13 @@
     </row>
     <row r="2135" spans="1:3">
       <c r="A2135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2135">
         <v>0</v>
       </c>
       <c r="C2135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23906,13 +23906,13 @@
     </row>
     <row r="2139" spans="1:3">
       <c r="A2139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2139">
         <v>0</v>
       </c>
       <c r="C2139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
@@ -23994,13 +23994,13 @@
     </row>
     <row r="2147" spans="1:3">
       <c r="A2147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2147">
         <v>0</v>
       </c>
       <c r="C2147">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="C2153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24305,10 +24305,10 @@
         <v>0</v>
       </c>
       <c r="B2175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2175">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24346,13 +24346,13 @@
     </row>
     <row r="2179" spans="1:3">
       <c r="A2179">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="B2179">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2179">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24632,13 +24632,13 @@
     </row>
     <row r="2205" spans="1:3">
       <c r="A2205">
-        <v>63</v>
+        <v>-1</v>
       </c>
       <c r="B2205">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2205">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24753,13 +24753,13 @@
     </row>
     <row r="2216" spans="1:3">
       <c r="A2216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2216">
         <v>0</v>
       </c>
       <c r="C2216">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
@@ -24863,13 +24863,13 @@
     </row>
     <row r="2226" spans="1:3">
       <c r="A2226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2226">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2226">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
@@ -24918,13 +24918,13 @@
     </row>
     <row r="2231" spans="1:3">
       <c r="A2231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2231">
         <v>0</v>
       </c>
       <c r="C2231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
@@ -24932,21 +24932,21 @@
         <v>0</v>
       </c>
       <c r="B2232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2232">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
       <c r="A2233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2233">
         <v>0</v>
       </c>
       <c r="C2233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -25039,13 +25039,13 @@
     </row>
     <row r="2242" spans="1:3">
       <c r="A2242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2242">
         <v>0</v>
       </c>
       <c r="C2242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -25152,10 +25152,10 @@
         <v>0</v>
       </c>
       <c r="B2252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
@@ -25193,13 +25193,13 @@
     </row>
     <row r="2256" spans="1:3">
       <c r="A2256">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2256">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2256">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="C2266">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25339,10 +25339,10 @@
         <v>0</v>
       </c>
       <c r="B2269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25490,13 +25490,13 @@
     </row>
     <row r="2283" spans="1:3">
       <c r="A2283">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2283">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2283">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25523,13 +25523,13 @@
     </row>
     <row r="2286" spans="1:3">
       <c r="A2286">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="B2286">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C2286">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25537,10 +25537,10 @@
         <v>0</v>
       </c>
       <c r="B2287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25655,24 +25655,24 @@
     </row>
     <row r="2298" spans="1:3">
       <c r="A2298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2298">
         <v>0</v>
       </c>
       <c r="C2298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
       <c r="A2299">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2299">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2299">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25812,10 +25812,10 @@
         <v>0</v>
       </c>
       <c r="B2312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2312">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -25831,13 +25831,13 @@
     </row>
     <row r="2314" spans="1:3">
       <c r="A2314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2314">
         <v>0</v>
       </c>
       <c r="C2314">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25944,21 +25944,21 @@
         <v>0</v>
       </c>
       <c r="B2324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2324">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
       <c r="A2325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2325">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2325">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -25974,24 +25974,24 @@
     </row>
     <row r="2327" spans="1:3">
       <c r="A2327">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2327">
         <v>0</v>
       </c>
       <c r="C2327">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
       <c r="A2328">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2328">
         <v>0</v>
       </c>
       <c r="C2328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26040,13 +26040,13 @@
     </row>
     <row r="2333" spans="1:3">
       <c r="A2333">
+        <v>-1</v>
+      </c>
+      <c r="B2333">
+        <v>0</v>
+      </c>
+      <c r="C2333">
         <v>3</v>
-      </c>
-      <c r="B2333">
-        <v>4</v>
-      </c>
-      <c r="C2333">
-        <v>5</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26183,13 +26183,13 @@
     </row>
     <row r="2346" spans="1:3">
       <c r="A2346">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2346">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2346">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26238,13 +26238,13 @@
     </row>
     <row r="2351" spans="1:3">
       <c r="A2351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2351">
         <v>0</v>
       </c>
       <c r="C2351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26260,13 +26260,13 @@
     </row>
     <row r="2353" spans="1:3">
       <c r="A2353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2353">
         <v>0</v>
       </c>
       <c r="C2353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="B2365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26601,13 +26601,13 @@
     </row>
     <row r="2384" spans="1:3">
       <c r="A2384">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2384">
         <v>0</v>
       </c>
       <c r="C2384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26623,13 +26623,13 @@
     </row>
     <row r="2386" spans="1:3">
       <c r="A2386">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B2386">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2386">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26700,13 +26700,13 @@
     </row>
     <row r="2393" spans="1:3">
       <c r="A2393">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2393">
         <v>0</v>
       </c>
       <c r="C2393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26777,13 +26777,13 @@
     </row>
     <row r="2400" spans="1:3">
       <c r="A2400">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2400">
         <v>0</v>
       </c>
       <c r="C2400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26920,13 +26920,13 @@
     </row>
     <row r="2413" spans="1:3">
       <c r="A2413">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2413">
         <v>0</v>
       </c>
       <c r="C2413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -27327,24 +27327,24 @@
     </row>
     <row r="2450" spans="1:3">
       <c r="A2450">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B2450">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2450">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2451">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2451">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27448,13 +27448,13 @@
     </row>
     <row r="2461" spans="1:3">
       <c r="A2461">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2461">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C2461">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27536,13 +27536,13 @@
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2469">
         <v>0</v>
       </c>
       <c r="C2469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
       <c r="C2482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27715,10 +27715,10 @@
         <v>0</v>
       </c>
       <c r="B2485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -28001,10 +28001,10 @@
         <v>0</v>
       </c>
       <c r="B2511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2511">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28020,13 +28020,13 @@
     </row>
     <row r="2513" spans="1:3">
       <c r="A2513">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2513">
         <v>0</v>
       </c>
       <c r="C2513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28185,13 +28185,13 @@
     </row>
     <row r="2528" spans="1:3">
       <c r="A2528">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2528">
         <v>0</v>
       </c>
       <c r="C2528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
@@ -28207,24 +28207,24 @@
     </row>
     <row r="2530" spans="1:3">
       <c r="A2530">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2530">
         <v>0</v>
       </c>
       <c r="C2530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
       <c r="A2531">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2531">
         <v>0</v>
       </c>
       <c r="C2531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
@@ -28284,13 +28284,13 @@
     </row>
     <row r="2537" spans="1:3">
       <c r="A2537">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2537">
         <v>0</v>
       </c>
       <c r="C2537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
@@ -28372,13 +28372,13 @@
     </row>
     <row r="2545" spans="1:3">
       <c r="A2545">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2545">
         <v>0</v>
       </c>
       <c r="C2545">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -28438,13 +28438,13 @@
     </row>
     <row r="2551" spans="1:3">
       <c r="A2551">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2551">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C2551">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -28504,13 +28504,13 @@
     </row>
     <row r="2557" spans="1:3">
       <c r="A2557">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2557">
         <v>0</v>
       </c>
       <c r="C2557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
@@ -28614,24 +28614,24 @@
     </row>
     <row r="2567" spans="1:3">
       <c r="A2567">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2567">
         <v>0</v>
       </c>
       <c r="C2567">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2568" spans="1:3">
       <c r="A2568">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2568">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C2568">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -28658,24 +28658,24 @@
     </row>
     <row r="2571" spans="1:3">
       <c r="A2571">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2571">
         <v>0</v>
       </c>
       <c r="C2571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2572" spans="1:3">
       <c r="A2572">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2572">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2572">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2573" spans="1:3">
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="C2574">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -28724,13 +28724,13 @@
     </row>
     <row r="2577" spans="1:3">
       <c r="A2577">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2577">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2578" spans="1:3">
@@ -28771,10 +28771,10 @@
         <v>0</v>
       </c>
       <c r="B2581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2582" spans="1:3">
@@ -28859,10 +28859,10 @@
         <v>0</v>
       </c>
       <c r="B2589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2590" spans="1:3">
@@ -28911,13 +28911,13 @@
     </row>
     <row r="2594" spans="1:3">
       <c r="A2594">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2594">
         <v>0</v>
       </c>
       <c r="C2594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2595" spans="1:3">
@@ -28933,24 +28933,24 @@
     </row>
     <row r="2596" spans="1:3">
       <c r="A2596">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2596">
         <v>0</v>
       </c>
       <c r="C2596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2597" spans="1:3">
       <c r="A2597">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2597">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2597">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2598" spans="1:3">
@@ -28999,13 +28999,13 @@
     </row>
     <row r="2602" spans="1:3">
       <c r="A2602">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2602">
         <v>0</v>
       </c>
       <c r="C2602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2603" spans="1:3">
@@ -29021,13 +29021,13 @@
     </row>
     <row r="2604" spans="1:3">
       <c r="A2604">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2604">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2604">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2605" spans="1:3">
@@ -29109,13 +29109,13 @@
     </row>
     <row r="2612" spans="1:3">
       <c r="A2612">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2612">
         <v>0</v>
       </c>
       <c r="C2612">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2613" spans="1:3">
@@ -29142,13 +29142,13 @@
     </row>
     <row r="2615" spans="1:3">
       <c r="A2615">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2615">
         <v>0</v>
       </c>
       <c r="C2615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2616" spans="1:3">
@@ -29263,13 +29263,13 @@
     </row>
     <row r="2626" spans="1:3">
       <c r="A2626">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2626">
         <v>0</v>
       </c>
       <c r="C2626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2627" spans="1:3">
@@ -29351,13 +29351,13 @@
     </row>
     <row r="2634" spans="1:3">
       <c r="A2634">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2634">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2634">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2635" spans="1:3">
@@ -29387,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="B2637">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2637">
         <v>0</v>
@@ -29571,13 +29571,13 @@
     </row>
     <row r="2654" spans="1:3">
       <c r="A2654">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B2654">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2654">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2655" spans="1:3">
@@ -29604,13 +29604,13 @@
     </row>
     <row r="2657" spans="1:3">
       <c r="A2657">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2657">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2657">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2658" spans="1:3">
@@ -29626,13 +29626,13 @@
     </row>
     <row r="2659" spans="1:3">
       <c r="A2659">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2659">
         <v>0</v>
       </c>
       <c r="C2659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2660" spans="1:3">
@@ -29802,24 +29802,24 @@
     </row>
     <row r="2675" spans="1:3">
       <c r="A2675">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B2675">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2675">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2676" spans="1:3">
       <c r="A2676">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B2676">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2676">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2677" spans="1:3">
@@ -29868,13 +29868,13 @@
     </row>
     <row r="2681" spans="1:3">
       <c r="A2681">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2681">
         <v>0</v>
       </c>
       <c r="C2681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2682" spans="1:3">
@@ -29934,13 +29934,13 @@
     </row>
     <row r="2687" spans="1:3">
       <c r="A2687">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2687">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C2687">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2688" spans="1:3">
@@ -30088,13 +30088,13 @@
     </row>
     <row r="2701" spans="1:3">
       <c r="A2701">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2701">
         <v>0</v>
       </c>
       <c r="C2701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2702" spans="1:3">
@@ -30110,13 +30110,13 @@
     </row>
     <row r="2703" spans="1:3">
       <c r="A2703">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2703">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2703">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2704" spans="1:3">
@@ -30234,10 +30234,10 @@
         <v>0</v>
       </c>
       <c r="B2714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2714">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2715" spans="1:3">
@@ -30369,7 +30369,7 @@
         <v>0</v>
       </c>
       <c r="C2726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2727" spans="1:3">
@@ -30385,13 +30385,13 @@
     </row>
     <row r="2728" spans="1:3">
       <c r="A2728">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B2728">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C2728">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2729" spans="1:3">
@@ -30407,13 +30407,13 @@
     </row>
     <row r="2730" spans="1:3">
       <c r="A2730">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2730">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2731" spans="1:3">
@@ -30451,13 +30451,13 @@
     </row>
     <row r="2734" spans="1:3">
       <c r="A2734">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2734">
         <v>0</v>
       </c>
       <c r="C2734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2735" spans="1:3">
@@ -30542,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="B2742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2743" spans="1:3">
@@ -30737,13 +30737,13 @@
     </row>
     <row r="2760" spans="1:3">
       <c r="A2760">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2760">
         <v>0</v>
       </c>
       <c r="C2760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2761" spans="1:3">
@@ -30792,13 +30792,13 @@
     </row>
     <row r="2765" spans="1:3">
       <c r="A2765">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2765">
         <v>0</v>
       </c>
       <c r="C2765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2766" spans="1:3">
@@ -30847,13 +30847,13 @@
     </row>
     <row r="2770" spans="1:3">
       <c r="A2770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2770">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2770">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2771" spans="1:3">
@@ -30872,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="B2772">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2772">
         <v>48</v>
@@ -30935,13 +30935,13 @@
     </row>
     <row r="2778" spans="1:3">
       <c r="A2778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2778">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2778">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2779" spans="1:3">
@@ -31265,24 +31265,24 @@
     </row>
     <row r="2808" spans="1:3">
       <c r="A2808">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2808">
         <v>0</v>
       </c>
       <c r="C2808">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2809" spans="1:3">
       <c r="A2809">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2809">
         <v>0</v>
       </c>
       <c r="C2809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2810" spans="1:3">
@@ -31397,13 +31397,13 @@
     </row>
     <row r="2820" spans="1:3">
       <c r="A2820">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2820">
         <v>0</v>
       </c>
       <c r="C2820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2821" spans="1:3">
@@ -31452,24 +31452,24 @@
     </row>
     <row r="2825" spans="1:3">
       <c r="A2825">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2825">
         <v>0</v>
       </c>
       <c r="C2825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2826" spans="1:3">
       <c r="A2826">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2826">
         <v>0</v>
       </c>
       <c r="C2826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2827" spans="1:3">
@@ -31496,13 +31496,13 @@
     </row>
     <row r="2829" spans="1:3">
       <c r="A2829">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2829">
         <v>0</v>
       </c>
       <c r="C2829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2830" spans="1:3">
@@ -31617,13 +31617,13 @@
     </row>
     <row r="2840" spans="1:3">
       <c r="A2840">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2840">
         <v>0</v>
       </c>
       <c r="C2840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2841" spans="1:3">
@@ -31639,13 +31639,13 @@
     </row>
     <row r="2842" spans="1:3">
       <c r="A2842">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2842">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2842">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2843" spans="1:3">
@@ -31705,10 +31705,10 @@
     </row>
     <row r="2848" spans="1:3">
       <c r="A2848">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2848">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2848">
         <v>50</v>
@@ -31793,13 +31793,13 @@
     </row>
     <row r="2856" spans="1:3">
       <c r="A2856">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2856">
         <v>0</v>
       </c>
       <c r="C2856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2857" spans="1:3">
@@ -31859,24 +31859,24 @@
     </row>
     <row r="2862" spans="1:3">
       <c r="A2862">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2862">
         <v>0</v>
       </c>
       <c r="C2862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2863" spans="1:3">
       <c r="A2863">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2863">
         <v>0</v>
       </c>
       <c r="C2863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2864" spans="1:3">
@@ -31947,13 +31947,13 @@
     </row>
     <row r="2870" spans="1:3">
       <c r="A2870">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2870">
         <v>0</v>
       </c>
       <c r="C2870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2871" spans="1:3">
@@ -32090,13 +32090,13 @@
     </row>
     <row r="2883" spans="1:3">
       <c r="A2883">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2883">
         <v>0</v>
       </c>
       <c r="C2883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:3">
@@ -32398,13 +32398,13 @@
     </row>
     <row r="2911" spans="1:3">
       <c r="A2911">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2911">
         <v>0</v>
       </c>
       <c r="C2911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2912" spans="1:3">
@@ -32431,13 +32431,13 @@
     </row>
     <row r="2914" spans="1:3">
       <c r="A2914">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2914">
         <v>0</v>
       </c>
       <c r="C2914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2915" spans="1:3">
@@ -32475,13 +32475,13 @@
     </row>
     <row r="2918" spans="1:3">
       <c r="A2918">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2918">
         <v>0</v>
       </c>
       <c r="C2918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2919" spans="1:3">
@@ -32585,24 +32585,24 @@
     </row>
     <row r="2928" spans="1:3">
       <c r="A2928">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2928">
         <v>0</v>
       </c>
       <c r="C2928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2929" spans="1:3">
       <c r="A2929">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2929">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2929">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2930" spans="1:3">
@@ -32728,13 +32728,13 @@
     </row>
     <row r="2941" spans="1:3">
       <c r="A2941">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2941">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2941">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2942" spans="1:3">
@@ -32877,7 +32877,7 @@
         <v>0</v>
       </c>
       <c r="C2954">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2955" spans="1:3">
@@ -32907,10 +32907,10 @@
         <v>0</v>
       </c>
       <c r="B2957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2958" spans="1:3">
@@ -32992,13 +32992,13 @@
     </row>
     <row r="2965" spans="1:3">
       <c r="A2965">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B2965">
         <v>0</v>
       </c>
       <c r="C2965">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2966" spans="1:3">
@@ -33179,13 +33179,13 @@
     </row>
     <row r="2982" spans="1:3">
       <c r="A2982">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2982">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2982">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2983" spans="1:3">
@@ -33193,10 +33193,10 @@
         <v>0</v>
       </c>
       <c r="B2983">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2984" spans="1:3">
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="C3003">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3004" spans="1:3">
@@ -33586,13 +33586,13 @@
     </row>
     <row r="3019" spans="1:3">
       <c r="A3019">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3019">
         <v>0</v>
       </c>
       <c r="C3019">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3020" spans="1:3">
@@ -33630,13 +33630,13 @@
     </row>
     <row r="3023" spans="1:3">
       <c r="A3023">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3023">
         <v>0</v>
       </c>
       <c r="C3023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3024" spans="1:3">
@@ -33707,13 +33707,13 @@
     </row>
     <row r="3030" spans="1:3">
       <c r="A3030">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3030">
         <v>0</v>
       </c>
       <c r="C3030">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3031" spans="1:3">
@@ -33729,13 +33729,13 @@
     </row>
     <row r="3032" spans="1:3">
       <c r="A3032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3032">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3032">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3033" spans="1:3">
@@ -33784,13 +33784,13 @@
     </row>
     <row r="3037" spans="1:3">
       <c r="A3037">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3037">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3037">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3038" spans="1:3">
@@ -33949,13 +33949,13 @@
     </row>
     <row r="3052" spans="1:3">
       <c r="A3052">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3052">
         <v>0</v>
       </c>
       <c r="C3052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3053" spans="1:3">
@@ -34015,13 +34015,13 @@
     </row>
     <row r="3058" spans="1:3">
       <c r="A3058">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3058">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3058">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3059" spans="1:3">
@@ -34062,10 +34062,10 @@
         <v>0</v>
       </c>
       <c r="B3062">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3063" spans="1:3">
@@ -34103,13 +34103,13 @@
     </row>
     <row r="3066" spans="1:3">
       <c r="A3066">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B3066">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3066">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3067" spans="1:3">
@@ -34158,24 +34158,24 @@
     </row>
     <row r="3071" spans="1:3">
       <c r="A3071">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3071">
         <v>0</v>
       </c>
       <c r="C3071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072" spans="1:3">
       <c r="A3072">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3072">
         <v>0</v>
       </c>
       <c r="C3072">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3073" spans="1:3">
@@ -34235,24 +34235,24 @@
     </row>
     <row r="3078" spans="1:3">
       <c r="A3078">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3078">
         <v>0</v>
       </c>
       <c r="C3078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3079" spans="1:3">
       <c r="A3079">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3079">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3079">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3080" spans="1:3">
@@ -34307,18 +34307,18 @@
         <v>0</v>
       </c>
       <c r="C3084">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3085" spans="1:3">
       <c r="A3085">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="B3085">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C3085">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3086" spans="1:3">
@@ -34400,13 +34400,13 @@
     </row>
     <row r="3093" spans="1:3">
       <c r="A3093">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3093">
         <v>0</v>
       </c>
       <c r="C3093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3094" spans="1:3">
@@ -34447,10 +34447,10 @@
         <v>0</v>
       </c>
       <c r="B3097">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3098" spans="1:3">
@@ -34543,13 +34543,13 @@
     </row>
     <row r="3106" spans="1:3">
       <c r="A3106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3106">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3107" spans="1:3">
@@ -34565,13 +34565,13 @@
     </row>
     <row r="3108" spans="1:3">
       <c r="A3108">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B3108">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3108">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3109" spans="1:3">
@@ -34653,13 +34653,13 @@
     </row>
     <row r="3116" spans="1:3">
       <c r="A3116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3116">
         <v>0</v>
       </c>
       <c r="C3116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3117" spans="1:3">
@@ -34686,13 +34686,13 @@
     </row>
     <row r="3119" spans="1:3">
       <c r="A3119">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3119">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3119">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3120" spans="1:3">
@@ -34725,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="C3122">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3123" spans="1:3">
@@ -34741,13 +34741,13 @@
     </row>
     <row r="3124" spans="1:3">
       <c r="A3124">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B3124">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C3124">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3125" spans="1:3">
@@ -34763,13 +34763,13 @@
     </row>
     <row r="3126" spans="1:3">
       <c r="A3126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3126">
         <v>0</v>
       </c>
       <c r="C3126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3127" spans="1:3">
@@ -34840,13 +34840,13 @@
     </row>
     <row r="3133" spans="1:3">
       <c r="A3133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3133">
         <v>0</v>
       </c>
       <c r="C3133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3134" spans="1:3">
@@ -35082,13 +35082,13 @@
     </row>
     <row r="3155" spans="1:3">
       <c r="A3155">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B3155">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C3155">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3156" spans="1:3">
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="C3156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3157" spans="1:3">
@@ -35357,13 +35357,13 @@
     </row>
     <row r="3180" spans="1:3">
       <c r="A3180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3180">
         <v>0</v>
       </c>
       <c r="C3180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3181" spans="1:3">
@@ -35544,10 +35544,10 @@
     </row>
     <row r="3197" spans="1:3">
       <c r="A3197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3197">
         <v>2</v>
@@ -35632,13 +35632,13 @@
     </row>
     <row r="3205" spans="1:3">
       <c r="A3205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3205">
         <v>0</v>
       </c>
       <c r="C3205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3206" spans="1:3">
@@ -35654,24 +35654,24 @@
     </row>
     <row r="3207" spans="1:3">
       <c r="A3207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3207">
         <v>0</v>
       </c>
       <c r="C3207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3208" spans="1:3">
       <c r="A3208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3208">
         <v>0</v>
       </c>
       <c r="C3208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3209" spans="1:3">
@@ -35764,24 +35764,24 @@
     </row>
     <row r="3217" spans="1:3">
       <c r="A3217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3217">
         <v>0</v>
       </c>
       <c r="C3217">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3218" spans="1:3">
       <c r="A3218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3218">
         <v>0</v>
       </c>
       <c r="C3218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3219" spans="1:3">
@@ -35841,13 +35841,13 @@
     </row>
     <row r="3224" spans="1:3">
       <c r="A3224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3224">
         <v>0</v>
       </c>
       <c r="C3224">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3225" spans="1:3">
@@ -35896,13 +35896,13 @@
     </row>
     <row r="3229" spans="1:3">
       <c r="A3229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3229">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3230" spans="1:3">
@@ -35979,7 +35979,7 @@
         <v>0</v>
       </c>
       <c r="C3236">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3237" spans="1:3">
@@ -35995,24 +35995,24 @@
     </row>
     <row r="3238" spans="1:3">
       <c r="A3238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3238">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3239" spans="1:3">
       <c r="A3239">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B3239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3239">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3240" spans="1:3">
@@ -36028,24 +36028,24 @@
     </row>
     <row r="3241" spans="1:3">
       <c r="A3241">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B3241">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C3241">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3242" spans="1:3">
       <c r="A3242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3242">
         <v>0</v>
       </c>
       <c r="C3242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3243" spans="1:3">
@@ -36078,7 +36078,7 @@
         <v>0</v>
       </c>
       <c r="C3245">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3246" spans="1:3">
@@ -36094,13 +36094,13 @@
     </row>
     <row r="3247" spans="1:3">
       <c r="A3247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3247">
         <v>0</v>
       </c>
       <c r="C3247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3248" spans="1:3">
@@ -36413,13 +36413,13 @@
     </row>
     <row r="3276" spans="1:3">
       <c r="A3276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3276">
         <v>0</v>
       </c>
       <c r="C3276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3277" spans="1:3">
@@ -36611,13 +36611,13 @@
     </row>
     <row r="3294" spans="1:3">
       <c r="A3294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3294">
         <v>0</v>
       </c>
       <c r="C3294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3295" spans="1:3">
@@ -36636,10 +36636,10 @@
         <v>0</v>
       </c>
       <c r="B3296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3296">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3297" spans="1:3">
@@ -36666,13 +36666,13 @@
     </row>
     <row r="3299" spans="1:3">
       <c r="A3299">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B3299">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3299">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3300" spans="1:3">
@@ -36721,13 +36721,13 @@
     </row>
     <row r="3304" spans="1:3">
       <c r="A3304">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B3304">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C3304">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3305" spans="1:3">
@@ -36798,13 +36798,13 @@
     </row>
     <row r="3311" spans="1:3">
       <c r="A3311">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B3311">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C3311">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3312" spans="1:3">
@@ -36820,13 +36820,13 @@
     </row>
     <row r="3313" spans="1:3">
       <c r="A3313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3313">
         <v>0</v>
       </c>
       <c r="C3313">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3314" spans="1:3">
@@ -36864,13 +36864,13 @@
     </row>
     <row r="3317" spans="1:3">
       <c r="A3317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3317">
         <v>0</v>
       </c>
       <c r="C3317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3318" spans="1:3">
@@ -36908,21 +36908,21 @@
     </row>
     <row r="3321" spans="1:3">
       <c r="A3321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3321">
         <v>0</v>
       </c>
       <c r="C3321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:3">
       <c r="A3322">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3322">
         <v>2</v>
@@ -36996,13 +36996,13 @@
     </row>
     <row r="3329" spans="1:3">
       <c r="A3329">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B3329">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3329">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3330" spans="1:3">
@@ -37073,13 +37073,13 @@
     </row>
     <row r="3336" spans="1:3">
       <c r="A3336">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B3336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3336">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3337" spans="1:3">
@@ -37183,13 +37183,13 @@
     </row>
     <row r="3346" spans="1:3">
       <c r="A3346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3346">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3347" spans="1:3">
@@ -37337,13 +37337,13 @@
     </row>
     <row r="3360" spans="1:3">
       <c r="A3360">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="B3360">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C3360">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3361" spans="1:3">
@@ -37370,13 +37370,13 @@
     </row>
     <row r="3363" spans="1:3">
       <c r="A3363">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3363">
         <v>0</v>
       </c>
       <c r="C3363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3364" spans="1:3">
@@ -37458,13 +37458,13 @@
     </row>
     <row r="3371" spans="1:3">
       <c r="A3371">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3371">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3371">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3372" spans="1:3">
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="C3384">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:3">
@@ -37623,13 +37623,13 @@
     </row>
     <row r="3386" spans="1:3">
       <c r="A3386">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3386">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3386">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3387" spans="1:3">
@@ -37678,10 +37678,10 @@
     </row>
     <row r="3391" spans="1:3">
       <c r="A3391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3391">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3391">
         <v>5</v>
@@ -37733,13 +37733,13 @@
     </row>
     <row r="3396" spans="1:3">
       <c r="A3396">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B3396">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C3396">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3397" spans="1:3">
@@ -37865,13 +37865,13 @@
     </row>
     <row r="3408" spans="1:3">
       <c r="A3408">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3408">
         <v>0</v>
       </c>
       <c r="C3408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:3">
@@ -38085,13 +38085,13 @@
     </row>
     <row r="3428" spans="1:3">
       <c r="A3428">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3428">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3428">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3429" spans="1:3">
@@ -38129,13 +38129,13 @@
     </row>
     <row r="3432" spans="1:3">
       <c r="A3432">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3432">
         <v>0</v>
       </c>
       <c r="C3432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3433" spans="1:3">
@@ -38151,13 +38151,13 @@
     </row>
     <row r="3434" spans="1:3">
       <c r="A3434">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3434">
         <v>0</v>
       </c>
       <c r="C3434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="1:3">
@@ -38283,13 +38283,13 @@
     </row>
     <row r="3446" spans="1:3">
       <c r="A3446">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3446">
         <v>0</v>
       </c>
       <c r="C3446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3447" spans="1:3">
@@ -38338,13 +38338,13 @@
     </row>
     <row r="3451" spans="1:3">
       <c r="A3451">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3451">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3451">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3452" spans="1:3">
@@ -38360,13 +38360,13 @@
     </row>
     <row r="3453" spans="1:3">
       <c r="A3453">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3453">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3453">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3454" spans="1:3">
@@ -38437,13 +38437,13 @@
     </row>
     <row r="3460" spans="1:3">
       <c r="A3460">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B3460">
         <v>0</v>
       </c>
       <c r="C3460">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:3">
@@ -38470,35 +38470,35 @@
     </row>
     <row r="3463" spans="1:3">
       <c r="A3463">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3463">
         <v>0</v>
       </c>
       <c r="C3463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="1:3">
       <c r="A3464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3464">
         <v>0</v>
       </c>
       <c r="C3464">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3465" spans="1:3">
       <c r="A3465">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B3465">
         <v>0</v>
       </c>
       <c r="C3465">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="1:3">
@@ -38635,24 +38635,24 @@
     </row>
     <row r="3478" spans="1:3">
       <c r="A3478">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3478">
         <v>0</v>
       </c>
       <c r="C3478">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:3">
       <c r="A3479">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B3479">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3479">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3480" spans="1:3">
@@ -38756,13 +38756,13 @@
     </row>
     <row r="3489" spans="1:3">
       <c r="A3489">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B3489">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C3489">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3490" spans="1:3">
@@ -38855,13 +38855,13 @@
     </row>
     <row r="3498" spans="1:3">
       <c r="A3498">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B3498">
         <v>0</v>
       </c>
       <c r="C3498">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3499" spans="1:3">
@@ -38943,13 +38943,13 @@
     </row>
     <row r="3506" spans="1:3">
       <c r="A3506">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3506">
         <v>0</v>
       </c>
       <c r="C3506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3507" spans="1:3">
@@ -38976,13 +38976,13 @@
     </row>
     <row r="3509" spans="1:3">
       <c r="A3509">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3509">
         <v>0</v>
       </c>
       <c r="C3509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3510" spans="1:3">
@@ -38998,13 +38998,13 @@
     </row>
     <row r="3511" spans="1:3">
       <c r="A3511">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="B3511">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3511">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3512" spans="1:3">
@@ -39042,13 +39042,13 @@
     </row>
     <row r="3515" spans="1:3">
       <c r="A3515">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3515">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3516" spans="1:3">
@@ -39130,13 +39130,13 @@
     </row>
     <row r="3523" spans="1:3">
       <c r="A3523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3523">
         <v>0</v>
       </c>
       <c r="C3523">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3524" spans="1:3">
@@ -39174,13 +39174,13 @@
     </row>
     <row r="3527" spans="1:3">
       <c r="A3527">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3527">
         <v>0</v>
       </c>
       <c r="C3527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3528" spans="1:3">
@@ -39196,13 +39196,13 @@
     </row>
     <row r="3529" spans="1:3">
       <c r="A3529">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3529">
         <v>0</v>
       </c>
       <c r="C3529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3530" spans="1:3">
@@ -39262,13 +39262,13 @@
     </row>
     <row r="3535" spans="1:3">
       <c r="A3535">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3535">
         <v>0</v>
       </c>
       <c r="C3535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3536" spans="1:3">
@@ -39276,10 +39276,10 @@
         <v>0</v>
       </c>
       <c r="B3536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3537" spans="1:3">
@@ -39331,21 +39331,21 @@
         <v>0</v>
       </c>
       <c r="B3541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3542" spans="1:3">
       <c r="A3542">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3542">
         <v>0</v>
       </c>
       <c r="C3542">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3543" spans="1:3">
@@ -39361,13 +39361,13 @@
     </row>
     <row r="3544" spans="1:3">
       <c r="A3544">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3544">
         <v>0</v>
       </c>
       <c r="C3544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3545" spans="1:3">
@@ -39427,13 +39427,13 @@
     </row>
     <row r="3550" spans="1:3">
       <c r="A3550">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B3550">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3550">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3551" spans="1:3">
@@ -39559,13 +39559,13 @@
     </row>
     <row r="3562" spans="1:3">
       <c r="A3562">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3562">
         <v>0</v>
       </c>
       <c r="C3562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3563" spans="1:3">
@@ -39614,13 +39614,13 @@
     </row>
     <row r="3567" spans="1:3">
       <c r="A3567">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3567">
         <v>0</v>
       </c>
       <c r="C3567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3568" spans="1:3">
@@ -39686,7 +39686,7 @@
         <v>0</v>
       </c>
       <c r="C3573">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3574" spans="1:3">
@@ -39702,13 +39702,13 @@
     </row>
     <row r="3575" spans="1:3">
       <c r="A3575">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3575">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C3575">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3576" spans="1:3">
@@ -39716,10 +39716,10 @@
         <v>0</v>
       </c>
       <c r="B3576">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3576">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3577" spans="1:3">
@@ -39746,13 +39746,13 @@
     </row>
     <row r="3579" spans="1:3">
       <c r="A3579">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3579">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3579">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3580" spans="1:3">
@@ -39779,24 +39779,24 @@
     </row>
     <row r="3582" spans="1:3">
       <c r="A3582">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3582">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3582">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3583" spans="1:3">
       <c r="A3583">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3583">
         <v>0</v>
       </c>
       <c r="C3583">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3584" spans="1:3">
@@ -39834,13 +39834,13 @@
     </row>
     <row r="3587" spans="1:3">
       <c r="A3587">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="B3587">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C3587">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3588" spans="1:3">
@@ -39867,24 +39867,24 @@
     </row>
     <row r="3590" spans="1:3">
       <c r="A3590">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B3590">
         <v>0</v>
       </c>
       <c r="C3590">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3591" spans="1:3">
       <c r="A3591">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3591">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3591">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:3">
@@ -39900,13 +39900,13 @@
     </row>
     <row r="3593" spans="1:3">
       <c r="A3593">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3593">
         <v>0</v>
       </c>
       <c r="C3593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3594" spans="1:3">
@@ -39988,13 +39988,13 @@
     </row>
     <row r="3601" spans="1:3">
       <c r="A3601">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3601">
         <v>0</v>
       </c>
       <c r="C3601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3602" spans="1:3">
@@ -40021,13 +40021,13 @@
     </row>
     <row r="3604" spans="1:3">
       <c r="A3604">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3604">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3604">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605" spans="1:3">
@@ -40054,13 +40054,13 @@
     </row>
     <row r="3607" spans="1:3">
       <c r="A3607">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3607">
         <v>0</v>
       </c>
       <c r="C3607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3608" spans="1:3">
@@ -40120,13 +40120,13 @@
     </row>
     <row r="3613" spans="1:3">
       <c r="A3613">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B3613">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3613">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:3">
@@ -40178,10 +40178,10 @@
         <v>0</v>
       </c>
       <c r="B3618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3619" spans="1:3">
@@ -40189,10 +40189,10 @@
         <v>0</v>
       </c>
       <c r="B3619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3620" spans="1:3">
@@ -40420,10 +40420,10 @@
         <v>0</v>
       </c>
       <c r="B3640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3641" spans="1:3">
@@ -40450,13 +40450,13 @@
     </row>
     <row r="3643" spans="1:3">
       <c r="A3643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3643">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3643">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3644" spans="1:3">
